--- a/simulation_data/iterative_algorithm/i_error_level_14_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_14_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.26103284912593</v>
+        <v>90.5554224118975</v>
       </c>
       <c r="D2" t="n">
-        <v>14.83453387498389</v>
+        <v>13.49206659610544</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.15502556769447</v>
+        <v>90.55503847519269</v>
       </c>
       <c r="D3" t="n">
-        <v>12.89762908533779</v>
+        <v>13.8437896549879</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>86.05942928442335</v>
+        <v>89.14662177893732</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3564532775518</v>
+        <v>14.4443442981223</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.55838185052954</v>
+        <v>87.42439462249102</v>
       </c>
       <c r="D5" t="n">
-        <v>14.60235183561938</v>
+        <v>15.49354084149888</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>84.62696297458025</v>
+        <v>85.24127868545233</v>
       </c>
       <c r="D6" t="n">
-        <v>15.11762503721091</v>
+        <v>13.55365009491772</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>81.43851552541437</v>
+        <v>82.92696322627013</v>
       </c>
       <c r="D7" t="n">
-        <v>14.21684885579059</v>
+        <v>17.11400651303464</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.53411136048122</v>
+        <v>82.41603312352379</v>
       </c>
       <c r="D8" t="n">
-        <v>14.39719261001262</v>
+        <v>16.34724374006457</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>80.27639418378359</v>
+        <v>82.38444476236542</v>
       </c>
       <c r="D9" t="n">
-        <v>14.87976679719198</v>
+        <v>13.27172217761217</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.0476525873908</v>
+        <v>80.60431682729637</v>
       </c>
       <c r="D10" t="n">
-        <v>14.76695611116821</v>
+        <v>14.45441839379923</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.36683364249095</v>
+        <v>81.24560595709789</v>
       </c>
       <c r="D11" t="n">
-        <v>14.94789766219797</v>
+        <v>13.80158652673556</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.93582196906975</v>
+        <v>78.9043667950576</v>
       </c>
       <c r="D12" t="n">
-        <v>12.88497685054667</v>
+        <v>15.9274787935709</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.1978205715332</v>
+        <v>78.4640331074683</v>
       </c>
       <c r="D13" t="n">
-        <v>16.59753299506039</v>
+        <v>15.01393467931423</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>74.617880212491</v>
+        <v>77.66004330351193</v>
       </c>
       <c r="D14" t="n">
-        <v>15.27434716301612</v>
+        <v>15.79159810189907</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>73.75642599910287</v>
+        <v>75.36433558693334</v>
       </c>
       <c r="D15" t="n">
-        <v>16.19976677508512</v>
+        <v>15.00067383630966</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.80358156425643</v>
+        <v>74.20202971132301</v>
       </c>
       <c r="D16" t="n">
-        <v>16.27843934352019</v>
+        <v>15.61877644788278</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.79863239827836</v>
+        <v>76.11271988381185</v>
       </c>
       <c r="D17" t="n">
-        <v>16.98632935744892</v>
+        <v>14.7526682236236</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.33750529357403</v>
+        <v>73.79848383155442</v>
       </c>
       <c r="D18" t="n">
-        <v>14.9289786749814</v>
+        <v>14.23776621885027</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.82390314251124</v>
+        <v>71.99500608330409</v>
       </c>
       <c r="D19" t="n">
-        <v>14.40236595301635</v>
+        <v>14.24240501528029</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>69.4987178157636</v>
+        <v>71.17648412515143</v>
       </c>
       <c r="D20" t="n">
-        <v>16.50561974615404</v>
+        <v>14.97096931432504</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.54009763258271</v>
+        <v>70.32771579210758</v>
       </c>
       <c r="D21" t="n">
-        <v>15.5117760975902</v>
+        <v>15.86796967521737</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.45944412552348</v>
+        <v>70.00622661839481</v>
       </c>
       <c r="D22" t="n">
-        <v>14.66365904977194</v>
+        <v>16.43980595873614</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.05017971742087</v>
+        <v>69.6247416350182</v>
       </c>
       <c r="D23" t="n">
-        <v>15.79141132310939</v>
+        <v>15.08008642590161</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.89010708993226</v>
+        <v>69.13098666379828</v>
       </c>
       <c r="D24" t="n">
-        <v>14.97424586606672</v>
+        <v>17.04695430654103</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.99882486457395</v>
+        <v>66.50238143062471</v>
       </c>
       <c r="D25" t="n">
-        <v>14.75166867176858</v>
+        <v>14.47691744999896</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>63.52578040478247</v>
+        <v>64.55626674167711</v>
       </c>
       <c r="D26" t="n">
-        <v>14.62018858848996</v>
+        <v>14.44489174835336</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.05246396096354</v>
+        <v>65.7573290270161</v>
       </c>
       <c r="D27" t="n">
-        <v>17.9155967794629</v>
+        <v>13.20632489734396</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.27555346639271</v>
+        <v>63.86891379123576</v>
       </c>
       <c r="D28" t="n">
-        <v>17.02651025519189</v>
+        <v>13.75329616174654</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.43916945380374</v>
+        <v>61.38690321699741</v>
       </c>
       <c r="D29" t="n">
-        <v>16.47690472254276</v>
+        <v>14.61622923114445</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.54061296635669</v>
+        <v>60.07214483144654</v>
       </c>
       <c r="D30" t="n">
-        <v>13.27405051965601</v>
+        <v>14.67502922064621</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>66.88678610361322</v>
+        <v>60.34710778552952</v>
       </c>
       <c r="D31" t="n">
-        <v>16.77092354329805</v>
+        <v>16.56788687077594</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.66712114738689</v>
+        <v>60.48365961307188</v>
       </c>
       <c r="D32" t="n">
-        <v>15.99293721035906</v>
+        <v>14.70848826848202</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.55371007138785</v>
+        <v>59.66592019168463</v>
       </c>
       <c r="D33" t="n">
-        <v>13.85090077419284</v>
+        <v>15.50126310611256</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.13362089054842</v>
+        <v>57.03392971261638</v>
       </c>
       <c r="D34" t="n">
-        <v>13.85639959005948</v>
+        <v>14.31791341483379</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.04344913698438</v>
+        <v>56.40603805439725</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0514429717547</v>
+        <v>16.27395416518717</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.17885372537547</v>
+        <v>56.45364106066663</v>
       </c>
       <c r="D36" t="n">
-        <v>15.36432716274935</v>
+        <v>14.49504561151605</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>57.01422517605683</v>
+        <v>52.71506286015038</v>
       </c>
       <c r="D37" t="n">
-        <v>14.87991729302391</v>
+        <v>14.69470489926569</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.87998142381353</v>
+        <v>53.93394208574201</v>
       </c>
       <c r="D38" t="n">
-        <v>14.35435062713472</v>
+        <v>16.77754677092586</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>51.90436939797526</v>
+        <v>53.58339707523493</v>
       </c>
       <c r="D39" t="n">
-        <v>16.86115746908098</v>
+        <v>16.37574088806774</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>49.92839620107693</v>
+        <v>51.0038280018492</v>
       </c>
       <c r="D40" t="n">
-        <v>14.0993838275365</v>
+        <v>13.56490814480043</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>47.76689927916226</v>
+        <v>51.68503137589877</v>
       </c>
       <c r="D41" t="n">
-        <v>14.47678091004076</v>
+        <v>16.44557204573532</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.7951034241752</v>
+        <v>53.01099008213883</v>
       </c>
       <c r="D42" t="n">
-        <v>16.54088037068208</v>
+        <v>16.49265166412901</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>51.94784007037323</v>
+        <v>49.79674178543279</v>
       </c>
       <c r="D43" t="n">
-        <v>17.79178607481174</v>
+        <v>15.25434456261279</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>50.04331998427951</v>
+        <v>49.97853771566552</v>
       </c>
       <c r="D44" t="n">
-        <v>16.11368046085516</v>
+        <v>15.42495221945715</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>44.90230028274678</v>
+        <v>43.80874149501911</v>
       </c>
       <c r="D45" t="n">
-        <v>15.12324512927936</v>
+        <v>15.40370117358227</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.61223058936529</v>
+        <v>45.82693256816428</v>
       </c>
       <c r="D46" t="n">
-        <v>14.76655154511691</v>
+        <v>15.43195548162818</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.87231864709519</v>
+        <v>45.24089661131263</v>
       </c>
       <c r="D47" t="n">
-        <v>15.63434807636436</v>
+        <v>16.31122876355368</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>46.44077180915158</v>
+        <v>44.66340263477823</v>
       </c>
       <c r="D48" t="n">
-        <v>15.8922269932506</v>
+        <v>13.95457184835002</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.16238944318341</v>
+        <v>42.75381238788282</v>
       </c>
       <c r="D49" t="n">
-        <v>16.56834089424865</v>
+        <v>17.138703353878</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.70778064955621</v>
+        <v>41.23316197947828</v>
       </c>
       <c r="D50" t="n">
-        <v>15.72138588485019</v>
+        <v>12.83717282356473</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.90166105982799</v>
+        <v>37.3195133439717</v>
       </c>
       <c r="D51" t="n">
-        <v>14.67605292902302</v>
+        <v>14.69688274987215</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.32396362377227</v>
+        <v>37.26668527163638</v>
       </c>
       <c r="D52" t="n">
-        <v>16.273240503192</v>
+        <v>16.08910821072784</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.07051863564228</v>
+        <v>37.07034233599293</v>
       </c>
       <c r="D53" t="n">
-        <v>15.54084885462152</v>
+        <v>15.41859816861083</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>40.39313524530552</v>
+        <v>36.520375590297</v>
       </c>
       <c r="D54" t="n">
-        <v>16.87944773971726</v>
+        <v>14.16344310010194</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.9300167286502</v>
+        <v>37.98803592209249</v>
       </c>
       <c r="D55" t="n">
-        <v>15.85597239896934</v>
+        <v>15.48582594998731</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>38.49346752050501</v>
+        <v>33.91621745336079</v>
       </c>
       <c r="D56" t="n">
-        <v>16.7783787090591</v>
+        <v>14.78331221971163</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.18511752721801</v>
+        <v>32.42770059239206</v>
       </c>
       <c r="D57" t="n">
-        <v>16.03297694331961</v>
+        <v>15.016860777087</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.46032887154725</v>
+        <v>35.66359959460677</v>
       </c>
       <c r="D58" t="n">
-        <v>15.47823200926668</v>
+        <v>13.27000058044142</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.15413183410651</v>
+        <v>33.33121981649421</v>
       </c>
       <c r="D59" t="n">
-        <v>15.58138625580014</v>
+        <v>14.39195820210633</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.62808584501277</v>
+        <v>30.87872808868236</v>
       </c>
       <c r="D60" t="n">
-        <v>17.69270455612443</v>
+        <v>14.94719786126602</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.71589053563431</v>
+        <v>29.54893879560724</v>
       </c>
       <c r="D61" t="n">
-        <v>14.96684837233678</v>
+        <v>14.03920449976841</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>26.6703235464408</v>
+        <v>26.95954385172662</v>
       </c>
       <c r="D62" t="n">
-        <v>15.97973781457408</v>
+        <v>17.22925202028627</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.00801514672153</v>
+        <v>28.88402941499132</v>
       </c>
       <c r="D63" t="n">
-        <v>15.90798143779133</v>
+        <v>15.646518372714</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.54211717845688</v>
+        <v>26.58995427706429</v>
       </c>
       <c r="D64" t="n">
-        <v>16.15446910624233</v>
+        <v>16.03699635312309</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.85732614876699</v>
+        <v>22.38552512530866</v>
       </c>
       <c r="D65" t="n">
-        <v>15.43259615775144</v>
+        <v>17.08009316149725</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.28619736414771</v>
+        <v>23.89891618104709</v>
       </c>
       <c r="D66" t="n">
-        <v>15.26489826526057</v>
+        <v>17.09026626799732</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.85061085385853</v>
+        <v>25.35109593996502</v>
       </c>
       <c r="D67" t="n">
-        <v>16.7991290725749</v>
+        <v>13.5430085212063</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.21118113076396</v>
+        <v>22.47513398297573</v>
       </c>
       <c r="D68" t="n">
-        <v>16.040006546088</v>
+        <v>16.39241375830193</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>20.56148748119335</v>
+        <v>25.73547682975982</v>
       </c>
       <c r="D69" t="n">
-        <v>15.3307392364929</v>
+        <v>14.33934997965003</v>
       </c>
     </row>
   </sheetData>
